--- a/medicine/Enfance/Yves_Got/Yves_Got.xlsx
+++ b/medicine/Enfance/Yves_Got/Yves_Got.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yves Got (né le 31 octobre 1939[1] à Cahors) est un auteur-illustrateur français. Il a dessiné Le Baron noir et créé la série Didou.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yves Got (né le 31 octobre 1939 à Cahors) est un auteur-illustrateur français. Il a dessiné Le Baron noir et créé la série Didou.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il intègre la School of Visual Arts de New York.
 En 1976 il crée dans L'Écho des savanes, avec René Pétillon au scénario, Le Baron noir, bande dessinée transposant dans un monde animalier cruel et caricatural les dissensions qui existent dans notre société. La série paraît quotidiennement dans le journal Le Matin de Paris de 1977 à 1980.
@@ -549,22 +563,95 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Œuvres pour les adultes
-Le Baron noir. [1] / [texte de] Pétillon et [dessins de] Got. Paris : Y. Got ; Paris : B. diffusion, 1976, 60 p.
+          <t>Œuvres pour les adultes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Baron noir.  / [texte de] Pétillon et [dessins de] Got. Paris : Y. Got ; Paris : B. diffusion, 1976, 60 p.
 Le Baron noir. 3 / [texte de] Pétillon et [dessins de] Got. Paris : Y. Got ; Paris : B. diffusion, 1978, 60 p.  (ISBN 2-902908-01-6)
-Images en cage / [texte et dessins de] Got. Paris : Futuropolis, 1980, [58] p.
+Images en cage / [texte et dessins de] Got. Paris : Futuropolis, 1980,  p.
 Le Baron Noir. 1 / [dessins de] Got ; [texte de] Pétillon. Paris : Librairie générale française, 1988, 157 p. (Le Livre de poche. [BD] ; 2049).  (ISBN 2-73160-613-4)
 Le Baron noir / [dessins de] Got et [texte de] Pétillon. Paris : Zenda, 1990, 124 p.  (ISBN 2-87687-030-4)
 L'Arène noire. Paris : Flammarion, 1990, 127 p. (Roman BD).  (ISBN 2-08-066356-9)
 Le Baron noir : le crocodile farceur et le mouton sécateur. Paris : Rackham, 1992. (Flip book, n °8).  (ISBN 2-87827-019-3)
 Gainsbourg illustré / par Got. Paris : A. Michel, 2001, 117 p.  (ISBN 2-226-11793-8)
 L'Amateur. 1. Talence : Humeurs, 2005, 120 p. (Collection Pudeur ; 1).  (ISBN 2-9519398-6-8)
-L'Amateur. 2. Talence : Humeurs, 2005, 120 p. (Collection Pudeur ; 2).  (ISBN 2-9519398-9-2)
-Albums pour la jeunesse
-Max le crocodile / Got. Paris : Seuil jeunesse, 1995, [33] p.  (ISBN 2-02-022474-7)
-Le Lion qui avait mauvaise haleine / Yves Got ; conté par Mimi Barthélémy. Paris : Seuil jeunesse, 2006, [14] p. (Petits contes du tapis).  (ISBN 2-02-089883-7)
-Expositions
-Yves Got et René Pétillon, 18 mai au 13 juin 2010, papiers gras, 1, place de l'Île, 1204 Genève[1]</t>
+L'Amateur. 2. Talence : Humeurs, 2005, 120 p. (Collection Pudeur ; 2).  (ISBN 2-9519398-9-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yves_Got</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yves_Got</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Albums pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Max le crocodile / Got. Paris : Seuil jeunesse, 1995,  p.  (ISBN 2-02-022474-7)
+Le Lion qui avait mauvaise haleine / Yves Got ; conté par Mimi Barthélémy. Paris : Seuil jeunesse, 2006,  p. (Petits contes du tapis).  (ISBN 2-02-089883-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yves_Got</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yves_Got</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Yves Got et René Pétillon, 18 mai au 13 juin 2010, papiers gras, 1, place de l'Île, 1204 Genève</t>
         </is>
       </c>
     </row>
